--- a/Predictions_Files/save_predictions_BTCUSD.xlsx
+++ b/Predictions_Files/save_predictions_BTCUSD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,6 +611,77 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-06 11:30:48</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.160756224</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.148309065</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.160756224</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.148309065</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.317579395</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.14890614</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.150199953</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.14890614</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.150199953</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.429756051</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4161611</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.274217363</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.129557797</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.245931279</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.352574986</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.228014264</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.01244715900000001</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NADA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
